--- a/T1_TMP_chem.xlsx
+++ b/T1_TMP_chem.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhukom\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{521B41D1-F7E7-471F-8F4B-9B3F84F63B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68DDB2B-924D-4424-89DE-C69A67E44D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{397FB070-C688-43EE-8D19-AED7EC90D76E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Past" sheetId="1" r:id="rId1"/>
+    <sheet name="Cost analysis" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="32">
   <si>
     <t>Fixed Costs</t>
   </si>
@@ -126,6 +127,12 @@
   </si>
   <si>
     <t>Projected (w/o VC)</t>
+  </si>
+  <si>
+    <t>Total Revenue</t>
+  </si>
+  <si>
+    <t>Total GP</t>
   </si>
 </sst>
 </file>
@@ -799,10 +806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF684787-4FAA-417F-A393-613D898F3A6C}">
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1570,6 +1577,24 @@
         <v>1.3944444444444444</v>
       </c>
     </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="5">
+        <f>C13+G13</f>
+        <v>28050</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="5">
+        <f>C22+G18</f>
+        <v>8075</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="B1:C1"/>
@@ -1586,4 +1611,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4865AC1-D8D4-4A88-A889-7F51BA68FFD3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/T1_TMP_chem.xlsx
+++ b/T1_TMP_chem.xlsx
@@ -8,14 +8,59 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhukom\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68DDB2B-924D-4424-89DE-C69A67E44D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B939F7-3292-490B-898B-E9BEBAE9E89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{397FB070-C688-43EE-8D19-AED7EC90D76E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{397FB070-C688-43EE-8D19-AED7EC90D76E}"/>
   </bookViews>
   <sheets>
     <sheet name="Cost analysis" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Answer Report 1" sheetId="3" r:id="rId2"/>
+    <sheet name="Sensitivity Report 1" sheetId="4" r:id="rId3"/>
+    <sheet name="Limits Report 1" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="4" hidden="1">Sheet2!$B$1:$B$4</definedName>
+    <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_est" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="4" hidden="1">Sheet2!$B$1:$B$4</definedName>
+    <definedName name="solver_lhs2" localSheetId="4" hidden="1">Sheet2!$D$1</definedName>
+    <definedName name="solver_lhs3" localSheetId="4" hidden="1">Sheet2!$D$2</definedName>
+    <definedName name="solver_lhs4" localSheetId="4" hidden="1">Sheet2!$D$3</definedName>
+    <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="4" hidden="1">4</definedName>
+    <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">Sheet2!$B$5</definedName>
+    <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rhs1" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs2" localSheetId="4" hidden="1">7500</definedName>
+    <definedName name="solver_rhs3" localSheetId="4" hidden="1">9000</definedName>
+    <definedName name="solver_rhs4" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="4" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="103">
   <si>
     <t>Fixed Costs</t>
   </si>
@@ -133,6 +178,219 @@
   </si>
   <si>
     <t>Total GP</t>
+  </si>
+  <si>
+    <t>Primary Product (PP)</t>
+  </si>
+  <si>
+    <t>Product K (K)</t>
+  </si>
+  <si>
+    <t>Product M (M)</t>
+  </si>
+  <si>
+    <t>Waste Treated (T)</t>
+  </si>
+  <si>
+    <t>Total Profit</t>
+  </si>
+  <si>
+    <t>Material X used</t>
+  </si>
+  <si>
+    <t>Material Y Used</t>
+  </si>
+  <si>
+    <t>Waste Balance</t>
+  </si>
+  <si>
+    <t>Microsoft Excel 16.0 Answer Report</t>
+  </si>
+  <si>
+    <t>Worksheet: [T1_TMP_chem.xlsx]Sheet2</t>
+  </si>
+  <si>
+    <t>Report Created: 2/23/2025 5:08:25 PM</t>
+  </si>
+  <si>
+    <t>Result: Solver found a solution.  All Constraints and optimality conditions are satisfied.</t>
+  </si>
+  <si>
+    <t>Solver Engine</t>
+  </si>
+  <si>
+    <t>Engine: Simplex LP</t>
+  </si>
+  <si>
+    <t>Solution Time: 0.047 Seconds.</t>
+  </si>
+  <si>
+    <t>Iterations: 4 Subproblems: 0</t>
+  </si>
+  <si>
+    <t>Solver Options</t>
+  </si>
+  <si>
+    <t>Max Time Unlimited,  Iterations Unlimited, Precision 0.000001</t>
+  </si>
+  <si>
+    <t>Max Subproblems Unlimited, Max Integer Sols Unlimited, Integer Tolerance 1%, Assume NonNegative</t>
+  </si>
+  <si>
+    <t>Objective Cell (Max)</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Original Value</t>
+  </si>
+  <si>
+    <t>Final Value</t>
+  </si>
+  <si>
+    <t>Variable Cells</t>
+  </si>
+  <si>
+    <t>Integer</t>
+  </si>
+  <si>
+    <t>Constraints</t>
+  </si>
+  <si>
+    <t>Cell Value</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Slack</t>
+  </si>
+  <si>
+    <t>$B$5</t>
+  </si>
+  <si>
+    <t>$B$1</t>
+  </si>
+  <si>
+    <t>Contin</t>
+  </si>
+  <si>
+    <t>$B$2</t>
+  </si>
+  <si>
+    <t>$B$3</t>
+  </si>
+  <si>
+    <t>$B$4</t>
+  </si>
+  <si>
+    <t>$D$1</t>
+  </si>
+  <si>
+    <t>$D$1&lt;=7500</t>
+  </si>
+  <si>
+    <t>Binding</t>
+  </si>
+  <si>
+    <t>$D$2</t>
+  </si>
+  <si>
+    <t>$D$2&lt;=9000</t>
+  </si>
+  <si>
+    <t>$D$3</t>
+  </si>
+  <si>
+    <t>$D$3=0</t>
+  </si>
+  <si>
+    <t>$B$1&gt;=0</t>
+  </si>
+  <si>
+    <t>Not Binding</t>
+  </si>
+  <si>
+    <t>$B$2&gt;=0</t>
+  </si>
+  <si>
+    <t>$B$3&gt;=0</t>
+  </si>
+  <si>
+    <t>$B$4&gt;=0</t>
+  </si>
+  <si>
+    <t>Microsoft Excel 16.0 Sensitivity Report</t>
+  </si>
+  <si>
+    <t>Report Created: 2/23/2025 5:08:26 PM</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Reduced</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Objective</t>
+  </si>
+  <si>
+    <t>Coefficient</t>
+  </si>
+  <si>
+    <t>Allowable</t>
+  </si>
+  <si>
+    <t>Increase</t>
+  </si>
+  <si>
+    <t>Decrease</t>
+  </si>
+  <si>
+    <t>Shadow</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Constraint</t>
+  </si>
+  <si>
+    <t>R.H. Side</t>
+  </si>
+  <si>
+    <t>Microsoft Excel 16.0 Limits Report</t>
+  </si>
+  <si>
+    <t>Report Created: 2/23/2025 5:08:27 PM</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Lower</t>
+  </si>
+  <si>
+    <t>Limit</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Upper</t>
   </si>
 </sst>
 </file>
@@ -142,7 +400,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +423,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="18"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -174,11 +440,60 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="23"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="23"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -187,7 +502,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -200,6 +515,19 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -808,7 +1136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF684787-4FAA-417F-A393-613D898F3A6C}">
   <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="B7" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -1614,13 +1942,965 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4865AC1-D8D4-4A88-A889-7F51BA68FFD3}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A54059CA-9370-46BD-976A-142F971D87DF}">
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0</v>
+      </c>
+      <c r="E16" s="10">
+        <v>27075</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="11">
+        <v>0</v>
+      </c>
+      <c r="E21" s="11">
+        <v>4500</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="11">
+        <v>0</v>
+      </c>
+      <c r="E22" s="11">
+        <v>3000</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="11">
+        <v>0</v>
+      </c>
+      <c r="E23" s="11">
+        <v>0</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0</v>
+      </c>
+      <c r="E24" s="10">
+        <v>1500</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="11">
+        <v>7500</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G29" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="11">
+        <v>9000</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G30" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="11">
+        <v>0</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G31" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="11">
+        <v>4500</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G32" s="11">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="11">
+        <v>3000</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G33" s="11">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="11">
+        <v>0</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G34" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="10">
+        <v>1500</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G35" s="10">
+        <v>1500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA7F0FB-7A8C-483A-A81A-7E9EC23CAB7F}">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="9">
+        <v>4500</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="9">
+        <v>5.7</v>
+      </c>
+      <c r="G9" s="9">
+        <v>1E+30</v>
+      </c>
+      <c r="H9" s="9">
+        <v>2.9999999999999991</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="9">
+        <v>3000</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0.59999999999999964</v>
+      </c>
+      <c r="G10" s="9">
+        <v>2.9999999999999991</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0.84999999999999964</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9">
+        <v>-1.4999999999999996</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0.55000000000000071</v>
+      </c>
+      <c r="G11" s="9">
+        <v>1.4999999999999996</v>
+      </c>
+      <c r="H11" s="9">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1500</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>-0.25</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0.84999999999999964</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0.74999999999999978</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="9">
+        <v>7500</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0.84999999999999964</v>
+      </c>
+      <c r="F17" s="9">
+        <v>7500</v>
+      </c>
+      <c r="G17" s="9">
+        <v>1500</v>
+      </c>
+      <c r="H17" s="9">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="9">
+        <v>9000</v>
+      </c>
+      <c r="E18" s="9">
+        <v>2.3000000000000003</v>
+      </c>
+      <c r="F18" s="9">
+        <v>9000</v>
+      </c>
+      <c r="G18" s="9">
+        <v>6000</v>
+      </c>
+      <c r="H18" s="9">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
+      <c r="G19" s="7">
+        <v>1500</v>
+      </c>
+      <c r="H19" s="7">
+        <v>1E+30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D31D631-C9CC-44E7-B9B5-85905F646A88}">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.28515625" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.28515625" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="10">
+        <v>27075</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="F11" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="11">
+        <v>4500</v>
+      </c>
+      <c r="F13" s="11">
+        <v>4500</v>
+      </c>
+      <c r="G13" s="11">
+        <v>27075</v>
+      </c>
+      <c r="I13" s="11">
+        <v>4500</v>
+      </c>
+      <c r="J13" s="11">
+        <v>27075</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="11">
+        <v>3000</v>
+      </c>
+      <c r="F14" s="11">
+        <v>3000</v>
+      </c>
+      <c r="G14" s="11">
+        <v>27075</v>
+      </c>
+      <c r="I14" s="11">
+        <v>3000</v>
+      </c>
+      <c r="J14" s="11">
+        <v>27075</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="11">
+        <v>0</v>
+      </c>
+      <c r="F15" s="11">
+        <v>0</v>
+      </c>
+      <c r="G15" s="11">
+        <v>27075</v>
+      </c>
+      <c r="I15" s="11">
+        <v>0</v>
+      </c>
+      <c r="J15" s="11">
+        <v>27075</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="10">
+        <v>1500</v>
+      </c>
+      <c r="F16" s="10">
+        <v>1500</v>
+      </c>
+      <c r="G16" s="10">
+        <v>27075</v>
+      </c>
+      <c r="I16" s="10">
+        <v>1500</v>
+      </c>
+      <c r="J16" s="10">
+        <v>27075</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4865AC1-D8D4-4A88-A889-7F51BA68FFD3}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1">
+        <v>4500</v>
+      </c>
+      <c r="D1">
+        <f>B1+B2</f>
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2">
+        <v>3000</v>
+      </c>
+      <c r="D2">
+        <f>2*B1+B3</f>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f>B1-(B2+B3+B4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5">
+        <f>5.7*B1+0.8*B2+0.65*B3-0.25*B4-0.2*B2-0.1*B3</f>
+        <v>27075</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6">
+        <f>B1+B2</f>
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7">
+        <f>2*B1+B3</f>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8">
+        <f>B1 - (B2+B3+B4)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/T1_TMP_chem.xlsx
+++ b/T1_TMP_chem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhukom\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B939F7-3292-490B-898B-E9BEBAE9E89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF02B710-986D-467E-BF7F-3142B0071EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{397FB070-C688-43EE-8D19-AED7EC90D76E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{397FB070-C688-43EE-8D19-AED7EC90D76E}"/>
   </bookViews>
   <sheets>
     <sheet name="Cost analysis" sheetId="1" r:id="rId1"/>
@@ -18,50 +18,95 @@
     <sheet name="Sensitivity Report 1" sheetId="4" r:id="rId3"/>
     <sheet name="Limits Report 1" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="Answer Report 2" sheetId="7" r:id="rId6"/>
+    <sheet name="Sensitivity Report 2" sheetId="8" r:id="rId7"/>
+    <sheet name="Limits Report 2" sheetId="9" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames>
+    <definedName name="solver_adj" localSheetId="8" hidden="1">Sheet1!$B$1:$B$3,Sheet1!$B$5,Sheet1!$B$6</definedName>
     <definedName name="solver_adj" localSheetId="4" hidden="1">Sheet2!$B$1:$B$4</definedName>
+    <definedName name="solver_cvg" localSheetId="8" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_est" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="8" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="8" hidden="1">Sheet1!$B$1:$B$3</definedName>
     <definedName name="solver_lhs1" localSheetId="4" hidden="1">Sheet2!$B$1:$B$4</definedName>
+    <definedName name="solver_lhs2" localSheetId="8" hidden="1">Sheet1!$C$1</definedName>
     <definedName name="solver_lhs2" localSheetId="4" hidden="1">Sheet2!$D$1</definedName>
+    <definedName name="solver_lhs3" localSheetId="8" hidden="1">Sheet1!$C$2</definedName>
     <definedName name="solver_lhs3" localSheetId="4" hidden="1">Sheet2!$D$2</definedName>
+    <definedName name="solver_lhs4" localSheetId="8" hidden="1">Sheet1!$C$3</definedName>
     <definedName name="solver_lhs4" localSheetId="4" hidden="1">Sheet2!$D$3</definedName>
+    <definedName name="solver_mip" localSheetId="8" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="8" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="8" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="8" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="8" hidden="1">4</definedName>
     <definedName name="solver_num" localSheetId="4" hidden="1">4</definedName>
+    <definedName name="solver_nwt" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="8" hidden="1">Sheet1!$B$4</definedName>
     <definedName name="solver_opt" localSheetId="4" hidden="1">Sheet2!$B$5</definedName>
+    <definedName name="solver_pre" localSheetId="8" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="8" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_rel4" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rhs1" localSheetId="8" hidden="1">0</definedName>
     <definedName name="solver_rhs1" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rhs2" localSheetId="8" hidden="1">7500</definedName>
     <definedName name="solver_rhs2" localSheetId="4" hidden="1">7500</definedName>
+    <definedName name="solver_rhs3" localSheetId="8" hidden="1">9000</definedName>
     <definedName name="solver_rhs3" localSheetId="4" hidden="1">9000</definedName>
+    <definedName name="solver_rhs4" localSheetId="8" hidden="1">0</definedName>
     <definedName name="solver_rhs4" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rlx" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="8" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="8" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="8" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="8" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="4" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="8" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="8" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -82,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="123">
   <si>
     <t>Fixed Costs</t>
   </si>
@@ -391,6 +436,66 @@
   </si>
   <si>
     <t>Upper</t>
+  </si>
+  <si>
+    <t>w/oK but buy Y</t>
+  </si>
+  <si>
+    <t>w/o K, not buy Y</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t>Worksheet: [T1_TMP_chem.xlsx]Sheet1</t>
+  </si>
+  <si>
+    <t>Report Created: 2/25/2025 1:15:41 PM</t>
+  </si>
+  <si>
+    <t>Solution Time: 0.031 Seconds.</t>
+  </si>
+  <si>
+    <t>Iterations: 3 Subproblems: 0</t>
+  </si>
+  <si>
+    <t>Max Time Unlimited,  Iterations Unlimited, Precision 0.000001, Use Automatic Scaling</t>
+  </si>
+  <si>
+    <t>$B$6</t>
+  </si>
+  <si>
+    <t>$C$1</t>
+  </si>
+  <si>
+    <t>$C$1&lt;=7500</t>
+  </si>
+  <si>
+    <t>$C$2</t>
+  </si>
+  <si>
+    <t>$C$2&lt;=9000</t>
+  </si>
+  <si>
+    <t>$C$3</t>
+  </si>
+  <si>
+    <t>$C$3=0</t>
+  </si>
+  <si>
+    <t>Report Created: 2/25/2025 1:15:42 PM</t>
+  </si>
+  <si>
+    <t>Report Created: 2/25/2025 1:15:43 PM</t>
   </si>
 </sst>
 </file>
@@ -502,32 +607,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -808,6 +908,83 @@
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
             <a:t> only meaningful discussion here is if we proceed under the preposition that the costs for 7500 units of X and 9000 units of Y has been imbibed in some other account as if it hasn't and is being accounted for as a cost incurred within the upcoming month than we are screwed as that is not enough materials to even produce the primary product at the breakeven point. Using the previous month for its baseline unit costs and profits, we can see that past the breakeven point, the PP still has the highest profit contribution or contribution margin. Hence, if we proceed with that in mind and prioritize PP's production, we will be left with 3000 units of X (as 1 unit of X and 2 units of Y is needed for every lb of PP). With the costs already paid for, it is more profitable to use 1500 units of X to produce 3000 units of K (with a contribution margin of $0.60) than to buy 1500 units of Y to produce 3000 units of M (with a contribution margin of $0.19). Hence, there would also be no need to consider treatment and we would still have 1500 units of K to be used the month after. </a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{147B4EDA-6120-4BDE-9664-EB4264D1948C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4925786" y="3429001"/>
+          <a:ext cx="7892143" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>As</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> we can see here, buying additional Y (a total of 6000*Y for P and 2500*Y for M) is the optimal move here to maximize Gross Profit as 46000 is greater than 27600</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -1134,14 +1311,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF684787-4FAA-417F-A393-613D898F3A6C}">
-  <dimension ref="A1:S27"/>
+  <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" customWidth="1"/>
     <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
@@ -1155,32 +1333,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="C1" s="9"/>
+      <c r="F1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="G1" s="9"/>
+      <c r="J1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="N1" s="4" t="s">
+      <c r="K1" s="9"/>
+      <c r="N1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="4"/>
+      <c r="O1" s="9"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="10"/>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <f>5.7*E2</f>
         <v>68400</v>
       </c>
@@ -1190,10 +1368,10 @@
       <c r="E2">
         <v>12000</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <f>0.8*I4</f>
         <v>6400</v>
       </c>
@@ -1204,10 +1382,10 @@
         <f>E2/3</f>
         <v>4000</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="2">
         <f>0.65*M4</f>
         <v>5200</v>
       </c>
@@ -1218,10 +1396,10 @@
         <f>E2/3</f>
         <v>4000</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="2">
         <v>0</v>
       </c>
       <c r="P2" t="s">
@@ -1233,15 +1411,15 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="F3" s="2" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="3"/>
+      <c r="G3" s="2"/>
       <c r="H3" t="s">
         <v>19</v>
       </c>
@@ -1249,10 +1427,10 @@
         <f xml:space="preserve"> 1</f>
         <v>1</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="3"/>
+      <c r="K3" s="2"/>
       <c r="L3" t="s">
         <v>20</v>
       </c>
@@ -1260,10 +1438,10 @@
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="3"/>
+      <c r="O3" s="2"/>
       <c r="P3" t="s">
         <v>22</v>
       </c>
@@ -1273,17 +1451,17 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
+      <c r="A4" s="10"/>
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>13000</v>
       </c>
       <c r="F4" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <f>E7*I2</f>
         <v>5333.333333333333</v>
       </c>
@@ -1297,7 +1475,7 @@
       <c r="J4" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="2">
         <f>E8*M2</f>
         <v>2916.6666666666665</v>
       </c>
@@ -1311,7 +1489,7 @@
       <c r="N4" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="2">
         <f>Q4*0.25</f>
         <v>1000</v>
       </c>
@@ -1324,97 +1502,97 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
+      <c r="A5" s="10"/>
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>4500</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <f>0.2*I4</f>
         <v>1600</v>
       </c>
       <c r="J5" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="2">
         <f>0.1*M4</f>
         <v>800</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="2">
         <f>O4</f>
         <v>1000</v>
       </c>
       <c r="P5" t="s">
         <v>25</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5" s="3">
         <f>O5/Q4</f>
         <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="F6" s="2" t="s">
+      <c r="C6" s="2"/>
+      <c r="F6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <f>G4+G5</f>
         <v>6933.333333333333</v>
       </c>
       <c r="H6" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="3">
         <f>G6/I4</f>
         <v>0.86666666666666659</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="2">
         <f>SUM(K4:K5)</f>
         <v>3716.6666666666665</v>
       </c>
       <c r="L6" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="3">
         <f>K6/M4</f>
         <v>0.46458333333333329</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="N6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="2">
         <f>O2-O5</f>
         <v>-1000</v>
       </c>
       <c r="P6" t="s">
         <v>26</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Q6" s="3">
         <f>O6/Q4</f>
         <v>-0.25</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
+      <c r="A7" s="10"/>
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <f>E7*E2</f>
         <v>16000</v>
       </c>
@@ -1425,41 +1603,41 @@
         <f>16/12</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <f>G2-G6</f>
         <v>-533.33333333333303</v>
       </c>
       <c r="H7" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="3">
         <f>G7/I4</f>
         <v>-6.6666666666666624E-2</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="2">
         <f>K2-K6</f>
         <v>1483.3333333333335</v>
       </c>
       <c r="L7" t="s">
         <v>26</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="3">
         <f>K7/M4</f>
         <v>0.18541666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
+      <c r="A8" s="10"/>
       <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <f>(E8*2)*E2</f>
         <v>17500</v>
       </c>
@@ -1470,89 +1648,89 @@
         <f>17.5/24</f>
         <v>0.72916666666666663</v>
       </c>
-      <c r="I8" s="5"/>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
+      <c r="A9" s="10"/>
       <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <f>(E9)*E2</f>
         <v>5000</v>
       </c>
       <c r="D9" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="3">
         <f>5/12</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="2" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <f>SUM(C4:C9)</f>
         <v>56000</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="3">
         <f>C10/E2</f>
         <v>4.666666666666667</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <f>C2-C10</f>
         <v>12400</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="3">
         <f>C11/E2</f>
         <v>1.0333333333333334</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="F12" s="1" t="s">
+      <c r="C12" s="9"/>
+      <c r="F12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="J12" s="1" t="s">
+      <c r="G12" s="9"/>
+      <c r="J12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="1"/>
-      <c r="N12" s="4" t="s">
+      <c r="K12" s="9"/>
+      <c r="N12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="O12" s="4"/>
+      <c r="O12" s="9"/>
       <c r="R12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <f>5.7*E13</f>
         <v>25650</v>
       </c>
@@ -1562,10 +1740,10 @@
       <c r="E13">
         <v>4500</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <f>0.8*I15</f>
         <v>2400</v>
       </c>
@@ -1576,10 +1754,10 @@
         <f>E13/3</f>
         <v>1500</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="2">
         <f>0.65*M15</f>
         <v>1950</v>
       </c>
@@ -1590,10 +1768,10 @@
         <f>E13/3</f>
         <v>1500</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="N13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="O13" s="3">
+      <c r="O13" s="2">
         <v>0</v>
       </c>
       <c r="P13" t="s">
@@ -1611,15 +1789,15 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="F14" s="2" t="s">
+      <c r="A14" s="10"/>
+      <c r="B14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="F14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="3"/>
+      <c r="G14" s="2"/>
       <c r="H14" t="s">
         <v>19</v>
       </c>
@@ -1627,10 +1805,10 @@
         <f xml:space="preserve"> 1</f>
         <v>1</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="3"/>
+      <c r="K14" s="2"/>
       <c r="L14" t="s">
         <v>20</v>
       </c>
@@ -1638,10 +1816,10 @@
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="N14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O14" s="3"/>
+      <c r="O14" s="2"/>
       <c r="P14" t="s">
         <v>22</v>
       </c>
@@ -1657,17 +1835,17 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
+      <c r="A15" s="10"/>
       <c r="B15" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>13000</v>
       </c>
       <c r="F15" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="2">
         <v>0</v>
       </c>
       <c r="H15" t="s">
@@ -1680,7 +1858,7 @@
       <c r="J15" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="2">
         <f>E19*M13</f>
         <v>1093.75</v>
       </c>
@@ -1694,7 +1872,7 @@
       <c r="N15" t="s">
         <v>5</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="2">
         <f>Q15*0.25</f>
         <v>375</v>
       </c>
@@ -1707,97 +1885,97 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
+      <c r="A16" s="10"/>
       <c r="B16" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>4500</v>
       </c>
       <c r="F16" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="2">
         <f>0.2*I15</f>
         <v>600</v>
       </c>
       <c r="J16" t="s">
         <v>5</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="2">
         <f>0.1*M15</f>
         <v>300</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="N16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O16" s="3">
+      <c r="O16" s="2">
         <f>O15</f>
         <v>375</v>
       </c>
       <c r="P16" t="s">
         <v>25</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="Q16" s="3">
         <f>O16/Q15</f>
         <v>0.25</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="2" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="F17" s="2" t="s">
+      <c r="C17" s="2"/>
+      <c r="F17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="2">
         <f>G15+G16</f>
         <v>600</v>
       </c>
       <c r="H17" t="s">
         <v>25</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="3">
         <f>G17/I15</f>
         <v>0.2</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="2">
         <f>SUM(K15:K16)</f>
         <v>1393.75</v>
       </c>
       <c r="L17" t="s">
         <v>25</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17" s="3">
         <f>K17/M15</f>
         <v>0.46458333333333335</v>
       </c>
-      <c r="N17" s="2" t="s">
+      <c r="N17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17" s="2">
         <f>O13-O16</f>
         <v>-375</v>
       </c>
       <c r="P17" t="s">
         <v>26</v>
       </c>
-      <c r="Q17" s="5">
+      <c r="Q17" s="3">
         <f>O17/Q15</f>
         <v>-0.25</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
+      <c r="A18" s="10"/>
       <c r="B18" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>0</v>
       </c>
       <c r="D18" t="s">
@@ -1807,41 +1985,41 @@
         <f>16/12</f>
         <v>1.3333333333333333</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="2">
         <f>G13-G17</f>
         <v>1800</v>
       </c>
       <c r="H18" t="s">
         <v>26</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="3">
         <f>G18/I15</f>
         <v>0.6</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="J18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="2">
         <f>K13-K17</f>
         <v>556.25</v>
       </c>
       <c r="L18" t="s">
         <v>26</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="3">
         <f>K18/M15</f>
         <v>0.18541666666666667</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
+      <c r="A19" s="10"/>
       <c r="B19" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <f>0</f>
         <v>0</v>
       </c>
@@ -1852,79 +2030,413 @@
         <f>17.5/24</f>
         <v>0.72916666666666663</v>
       </c>
-      <c r="I19" s="5"/>
+      <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
+      <c r="A20" s="10"/>
       <c r="B20" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <f>(E20)*E13</f>
         <v>1875</v>
       </c>
       <c r="D20" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="3">
         <f>5/12</f>
         <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="2" t="s">
+      <c r="A21" s="10"/>
+      <c r="B21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <f>SUM(C15:C20)</f>
         <v>19375</v>
       </c>
       <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="3">
         <f>C21/E13</f>
         <v>4.3055555555555554</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="2" t="s">
+      <c r="A22" s="10"/>
+      <c r="B22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <f>C13-C21</f>
         <v>6275</v>
       </c>
       <c r="D22" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="3">
         <f>C22/E13</f>
         <v>1.3944444444444444</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C23" s="3">
         <f>C13+G13</f>
         <v>28050</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C24" s="3">
         <f>C22+G18</f>
         <v>8075</v>
       </c>
     </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B27" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="F27" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="J27" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="9"/>
+      <c r="N27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="2">
+        <f>5.7*E28</f>
+        <v>42750</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28">
+        <v>7500</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="2">
+        <f>0.65*I30</f>
+        <v>3250</v>
+      </c>
+      <c r="H28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28">
+        <f>E28/3</f>
+        <v>2500</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="L28" t="s">
+        <v>18</v>
+      </c>
+      <c r="M28">
+        <f>E28/3</f>
+        <v>2500</v>
+      </c>
+      <c r="N28" t="s">
+        <v>3</v>
+      </c>
+      <c r="O28">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="F29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K29" s="2"/>
+      <c r="L29" t="s">
+        <v>22</v>
+      </c>
+      <c r="M29">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>4</v>
+      </c>
+      <c r="O29">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2">
+        <v>13000</v>
+      </c>
+      <c r="F30" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="2">
+        <f>E34*I28</f>
+        <v>1822.9166666666665</v>
+      </c>
+      <c r="H30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30">
+        <f>I28*I29*2</f>
+        <v>5000</v>
+      </c>
+      <c r="J30" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="2">
+        <f>M30*0.25</f>
+        <v>625</v>
+      </c>
+      <c r="L30" t="s">
+        <v>23</v>
+      </c>
+      <c r="M30">
+        <f>M28*M29</f>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="2">
+        <v>4500</v>
+      </c>
+      <c r="F31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="2">
+        <f>0.1*I30</f>
+        <v>500</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K31" s="2">
+        <f>K30</f>
+        <v>625</v>
+      </c>
+      <c r="L31" t="s">
+        <v>25</v>
+      </c>
+      <c r="M31" s="3">
+        <f>K31/M30</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="F32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="2">
+        <f>SUM(G30:G31)</f>
+        <v>2322.9166666666665</v>
+      </c>
+      <c r="H32" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" s="3">
+        <f>G32/I30</f>
+        <v>0.46458333333333329</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K32" s="2">
+        <f>K28-K31</f>
+        <v>-625</v>
+      </c>
+      <c r="L32" t="s">
+        <v>26</v>
+      </c>
+      <c r="M32" s="3">
+        <f>K32/M30</f>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33">
+        <f>16/12</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="2">
+        <f>G28-G32</f>
+        <v>927.08333333333348</v>
+      </c>
+      <c r="H33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" s="3">
+        <f>G33/I30</f>
+        <v>0.1854166666666667</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="2">
+        <f>6000*E34</f>
+        <v>4375</v>
+      </c>
+      <c r="D34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34">
+        <f>17.5/24</f>
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="2">
+        <f>(E35)*E28</f>
+        <v>3125</v>
+      </c>
+      <c r="D35" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="3">
+        <f>5/12</f>
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="2">
+        <f>SUM(C30:C35)</f>
+        <v>25000</v>
+      </c>
+      <c r="D36" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="3">
+        <f>C36/E28</f>
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="2">
+        <f>C28-C36</f>
+        <v>17750</v>
+      </c>
+      <c r="D37" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="3">
+        <f>C37/E28</f>
+        <v>2.3666666666666667</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="3">
+        <f>C28+G28</f>
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="10"/>
+      <c r="B39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="3">
+        <f>C37+G33</f>
+        <v>18677.083333333332</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40">
+        <v>27600</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="10"/>
+      <c r="B41" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41">
+        <v>6831.25</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="15">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="J1:K1"/>
@@ -1935,6 +2447,11 @@
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="N12:O12"/>
     <mergeCell ref="A12:A22"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A38:A39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1958,50 +2475,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="A6" s="1"/>
       <c r="B6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7" s="1"/>
       <c r="B7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="A8" s="1"/>
       <c r="B8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2021,30 +2538,30 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="10">
-        <v>0</v>
-      </c>
-      <c r="E16" s="10">
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
         <v>27075</v>
       </c>
     </row>
@@ -2054,87 +2571,87 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="11">
-        <v>0</v>
-      </c>
-      <c r="E21" s="11">
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6">
         <v>4500</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="11">
-        <v>0</v>
-      </c>
-      <c r="E22" s="11">
+      <c r="D22" s="6">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6">
         <v>3000</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="11">
-        <v>0</v>
-      </c>
-      <c r="E23" s="11">
-        <v>0</v>
-      </c>
-      <c r="F23" s="9" t="s">
+      <c r="D23" s="6">
+        <v>0</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="10">
-        <v>0</v>
-      </c>
-      <c r="E24" s="10">
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
         <v>1500</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="4" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2144,162 +2661,162 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="6">
         <v>7500</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="6">
         <v>9000</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="11">
-        <v>0</v>
-      </c>
-      <c r="E31" s="9" t="s">
+      <c r="D31" s="6">
+        <v>0</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G31" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="6">
         <v>4500</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G32" s="6">
         <v>4500</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="6">
         <v>3000</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G33" s="6">
         <v>3000</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="11">
-        <v>0</v>
-      </c>
-      <c r="E34" s="9" t="s">
+      <c r="D34" s="6">
+        <v>0</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G34" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="4">
         <v>1500</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G35" s="4">
         <v>1500</v>
       </c>
     </row>
@@ -2312,7 +2829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA7F0FB-7A8C-483A-A81A-7E9EC23CAB7F}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B6" sqref="B6:H19"/>
     </sheetView>
   </sheetViews>
@@ -2328,17 +2845,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2348,136 +2865,136 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="7" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="8" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="6">
         <v>4500</v>
       </c>
-      <c r="E9" s="9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="9">
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
         <v>5.7</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="6">
         <v>1E+30</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="6">
         <v>2.9999999999999991</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="6">
         <v>3000</v>
       </c>
-      <c r="E10" s="9">
-        <v>0</v>
-      </c>
-      <c r="F10" s="9">
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
         <v>0.59999999999999964</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="6">
         <v>2.9999999999999991</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="6">
         <v>0.84999999999999964</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="9">
-        <v>0</v>
-      </c>
-      <c r="E11" s="9">
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
         <v>-1.4999999999999996</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="6">
         <v>0.55000000000000071</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="6">
         <v>1.4999999999999996</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="6">
         <v>1E+30</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="4">
         <v>1500</v>
       </c>
-      <c r="E12" s="7">
-        <v>0</v>
-      </c>
-      <c r="F12" s="7">
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
         <v>-0.25</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="4">
         <v>0.84999999999999964</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="4">
         <v>0.74999999999999978</v>
       </c>
     </row>
@@ -2487,113 +3004,113 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="7" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="8" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="6">
         <v>7500</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="6">
         <v>0.84999999999999964</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="6">
         <v>7500</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="6">
         <v>1500</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="6">
         <v>3000</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="6">
         <v>9000</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="6">
         <v>2.3000000000000003</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="6">
         <v>9000</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="6">
         <v>6000</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="6">
         <v>1500</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7">
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
         <v>0.25</v>
       </c>
-      <c r="F19" s="7">
-        <v>0</v>
-      </c>
-      <c r="G19" s="7">
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
         <v>1500</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="4">
         <v>1E+30</v>
       </c>
     </row>
@@ -2623,182 +3140,182 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="12"/>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="4">
         <v>27075</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="12"/>
-      <c r="C11" s="12" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="F11" s="12" t="s">
+      <c r="D11" s="7"/>
+      <c r="F11" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="7" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="I12" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="J12" s="13" t="s">
+      <c r="J12" s="8" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="6">
         <v>4500</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="6">
         <v>4500</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="6">
         <v>27075</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="6">
         <v>4500</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="6">
         <v>27075</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="6">
         <v>3000</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="6">
         <v>3000</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="6">
         <v>27075</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="6">
         <v>3000</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="6">
         <v>27075</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="11">
-        <v>0</v>
-      </c>
-      <c r="F15" s="11">
-        <v>0</v>
-      </c>
-      <c r="G15" s="11">
+      <c r="D15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
         <v>27075</v>
       </c>
-      <c r="I15" s="11">
-        <v>0</v>
-      </c>
-      <c r="J15" s="11">
+      <c r="I15" s="6">
+        <v>0</v>
+      </c>
+      <c r="J15" s="6">
         <v>27075</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="4">
         <v>1500</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="4">
         <v>1500</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="4">
         <v>27075</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="4">
         <v>1500</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J16" s="4">
         <v>27075</v>
       </c>
     </row>
@@ -2812,7 +3329,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2903,4 +3420,994 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7985CEC1-A430-4271-ABEB-E4FC61C9DC35}">
+  <dimension ref="A1:G35"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="I1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>24525</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6">
+        <v>4500</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0</v>
+      </c>
+      <c r="E23" s="6">
+        <v>4500</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" s="6">
+        <v>4500</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="6">
+        <v>9000</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G31" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="6">
+        <v>0</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G32" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="6">
+        <v>4500</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G33" s="6">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" s="6">
+        <v>0</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G34" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="4">
+        <v>4500</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G35" s="4">
+        <v>4500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C610F93A-943C-4712-81C4-235B9D57A1B2}">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="6">
+        <v>4500</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>5.7</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1E+30</v>
+      </c>
+      <c r="H9" s="6">
+        <v>3.8499999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>-1.9249999999999998</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.55000000000000071</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1.9249999999999998</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="6">
+        <v>4500</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>-0.25</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1E+30</v>
+      </c>
+      <c r="H11" s="6">
+        <v>1.2833333333333332</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="6">
+        <v>4500</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6">
+        <v>7500</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1E+30</v>
+      </c>
+      <c r="H18" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="6">
+        <v>9000</v>
+      </c>
+      <c r="E19" s="6">
+        <v>2.7250000000000001</v>
+      </c>
+      <c r="F19" s="6">
+        <v>9000</v>
+      </c>
+      <c r="G19" s="6">
+        <v>6000</v>
+      </c>
+      <c r="H19" s="6">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
+        <v>4500</v>
+      </c>
+      <c r="H20" s="4">
+        <v>1E+30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{988D568D-1224-43B3-A46E-631E376FD898}">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.28515625" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.28515625" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="4">
+        <v>24525</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="6">
+        <v>4500</v>
+      </c>
+      <c r="F13" s="6">
+        <v>4500</v>
+      </c>
+      <c r="G13" s="6">
+        <v>24525</v>
+      </c>
+      <c r="I13" s="6">
+        <v>4500</v>
+      </c>
+      <c r="J13" s="6">
+        <v>24525</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
+        <v>24525</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6">
+        <v>24525</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="6">
+        <v>4500</v>
+      </c>
+      <c r="F15" s="6">
+        <v>4500</v>
+      </c>
+      <c r="G15" s="6">
+        <v>24525</v>
+      </c>
+      <c r="I15" s="6">
+        <v>4500</v>
+      </c>
+      <c r="J15" s="6">
+        <v>24525</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6">
+        <v>24525</v>
+      </c>
+      <c r="I16" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J16" s="6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>24525</v>
+      </c>
+      <c r="I17" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J17" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7353DEE9-5CCC-4C99-8584-A433650E1FE4}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1">
+        <v>4500</v>
+      </c>
+      <c r="C1">
+        <f>B1</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <f>2*B1+B2</f>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3">
+        <v>4500</v>
+      </c>
+      <c r="C3">
+        <f>B1-(B2+B3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4">
+        <f>5.7*B1 + 0.65*B2 - 0.25*B3 - 0.1*B2</f>
+        <v>24525</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>